--- a/apps/load_data/2019/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/04/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0419\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2019\HHY0419\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48514F-D107-458F-8614-44FCD4C156C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759EB19B-8E99-4C18-AD43-FB47978A4C49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$293</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$290</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12366" uniqueCount="3346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="3343">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7285,9 +7286,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8581,9 +8579,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8948,9 +8943,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10553,7 +10545,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -10561,6 +10553,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10918,8 +10911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="J298" sqref="J298"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P286" sqref="P286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46305,12 +46298,7 @@
       <c r="AB193" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>106</v>
       </c>
@@ -46363,7 +46351,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -46375,10 +46363,10 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2422</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2423</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -46393,13 +46381,13 @@
         <v>159</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BS193" s="3">
         <v>36225</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -46420,19 +46408,19 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -46470,13 +46458,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46508,12 +46496,7 @@
       <c r="AB194" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -46560,7 +46543,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BB194" s="1">
         <v>4</v>
@@ -46569,7 +46552,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -46581,10 +46564,10 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -46596,13 +46579,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BS194" s="3">
         <v>36949</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -46626,19 +46609,19 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="CD194" s="1" t="s">
         <v>2091</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="CG194" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -46676,13 +46659,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46714,12 +46697,7 @@
       <c r="AB195" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -46766,7 +46744,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="BB195" s="1">
         <v>4</v>
@@ -46775,7 +46753,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -46787,10 +46765,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -46802,13 +46780,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BS195" s="3">
         <v>36825</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -46832,19 +46810,19 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -46882,13 +46860,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -46917,12 +46895,7 @@
       <c r="AA196" s="1">
         <v>0</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -46972,7 +46945,7 @@
         <v>101</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BB196" s="1">
         <v>4</v>
@@ -46981,7 +46954,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -46993,7 +46966,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>600</v>
@@ -47005,7 +46978,7 @@
         <v>105</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47023,16 +46996,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>606</v>
@@ -47073,13 +47046,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47111,12 +47084,7 @@
       <c r="AB197" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47166,7 +47134,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BB197" s="1">
         <v>4</v>
@@ -47175,7 +47143,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47187,13 +47155,13 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47214,13 +47182,13 @@
         <v>704</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -47261,13 +47229,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47296,12 +47264,7 @@
       <c r="AA198" s="1">
         <v>0</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>106</v>
       </c>
@@ -47351,7 +47314,7 @@
         <v>101</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB198" s="1">
         <v>4</v>
@@ -47360,7 +47323,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47372,7 +47335,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>613</v>
@@ -47384,7 +47347,7 @@
         <v>105</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47402,16 +47365,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD198" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CD198" s="1" t="s">
-        <v>2485</v>
-      </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>620</v>
@@ -47452,13 +47415,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47493,12 +47456,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>106</v>
       </c>
@@ -47545,7 +47503,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BB199" s="1">
         <v>4</v>
@@ -47554,7 +47512,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -47566,10 +47524,10 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="BI199" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="BI199" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -47581,13 +47539,13 @@
         <v>119</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BS199" s="3">
         <v>35243</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -47605,19 +47563,19 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="CG199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>130</v>
@@ -47655,13 +47613,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47690,12 +47648,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>106</v>
       </c>
@@ -47745,7 +47698,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BB200" s="1">
         <v>4</v>
@@ -47754,7 +47707,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -47766,7 +47719,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>613</v>
@@ -47778,7 +47731,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -47796,16 +47749,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>620</v>
@@ -47846,13 +47799,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -47881,12 +47834,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>106</v>
       </c>
@@ -47936,7 +47884,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BB201" s="1">
         <v>4</v>
@@ -47945,7 +47893,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -47957,7 +47905,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>2386</v>
@@ -47972,7 +47920,7 @@
         <v>159</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -47990,16 +47938,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>2392</v>
@@ -48040,13 +47988,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48075,12 +48023,7 @@
       <c r="AA202" s="1">
         <v>0</v>
       </c>
-      <c r="AC202" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC202" s="3"/>
       <c r="AF202" s="1" t="s">
         <v>106</v>
       </c>
@@ -48127,7 +48070,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BB202" s="1">
         <v>4</v>
@@ -48136,7 +48079,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48148,7 +48091,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>473</v>
@@ -48163,13 +48106,13 @@
         <v>218</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BS202" s="3">
         <v>34307</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48187,16 +48130,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>437</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>480</v>
@@ -48237,13 +48180,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48275,12 +48218,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>106</v>
       </c>
@@ -48330,7 +48268,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BB203" s="1">
         <v>4</v>
@@ -48339,7 +48277,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48351,7 +48289,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>877</v>
@@ -48363,7 +48301,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48384,16 +48322,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>882</v>
@@ -48434,13 +48372,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48469,12 +48407,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2420</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>106</v>
       </c>
@@ -48521,7 +48454,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BB204" s="1">
         <v>4</v>
@@ -48530,7 +48463,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -48542,10 +48475,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -48557,13 +48490,13 @@
         <v>119</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BS204" s="3">
         <v>35950</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -48581,19 +48514,19 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>1894</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -48631,10 +48564,10 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>376</v>
@@ -48715,7 +48648,7 @@
         <v>378</v>
       </c>
       <c r="CE205" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="206" spans="1:87" x14ac:dyDescent="0.25">
@@ -48729,10 +48662,10 @@
         <v>94</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>376</v>
@@ -48801,7 +48734,7 @@
         <v>0</v>
       </c>
       <c r="BZ206" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="CA206" s="1" t="s">
         <v>124</v>
@@ -48813,7 +48746,7 @@
         <v>378</v>
       </c>
       <c r="CE206" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="207" spans="1:87" x14ac:dyDescent="0.25">
@@ -48848,13 +48781,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -48935,7 +48868,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB207" s="1">
         <v>4</v>
@@ -48944,7 +48877,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -48956,7 +48889,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BM207" s="1" t="s">
         <v>118</v>
@@ -48968,7 +48901,7 @@
         <v>159</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -48986,16 +48919,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="CD207" s="1" t="s">
         <v>437</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CG207" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>130</v>
@@ -49036,13 +48969,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49117,7 +49050,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB208" s="1">
         <v>4</v>
@@ -49126,7 +49059,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49138,10 +49071,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2580</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -49153,13 +49086,13 @@
         <v>218</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BS208" s="3">
         <v>36099</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49177,19 +49110,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -49227,13 +49160,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49308,7 +49241,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BB209" s="1">
         <v>4</v>
@@ -49317,7 +49250,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49329,10 +49262,10 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>118</v>
@@ -49344,13 +49277,13 @@
         <v>102</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BS209" s="3">
         <v>37735</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49368,19 +49301,19 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="CG209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>130</v>
@@ -49418,13 +49351,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -49502,7 +49435,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BB210" s="1">
         <v>4</v>
@@ -49511,7 +49444,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -49523,7 +49456,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>877</v>
@@ -49535,7 +49468,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -49553,16 +49486,16 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>917</v>
       </c>
       <c r="CE210" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>882</v>
@@ -49603,13 +49536,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -49642,7 +49575,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>2014</v>
@@ -49687,7 +49620,7 @@
         <v>101</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BB211" s="1">
         <v>4</v>
@@ -49696,7 +49629,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -49708,7 +49641,7 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -49717,7 +49650,7 @@
         <v>105</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -49738,13 +49671,13 @@
         <v>1663</v>
       </c>
       <c r="CD211" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CE211" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>130</v>
@@ -49785,13 +49718,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -49869,7 +49802,7 @@
         <v>101</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BB212" s="1">
         <v>4</v>
@@ -49878,7 +49811,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -49890,10 +49823,10 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>118</v>
@@ -49902,7 +49835,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -49926,13 +49859,13 @@
         <v>1005</v>
       </c>
       <c r="CE212" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CG212" s="1" t="s">
+      <c r="CH212" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="CH212" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="CI212" s="1" t="s">
         <v>130</v>
@@ -49970,13 +49903,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50054,7 +49987,7 @@
         <v>101</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BB213" s="1">
         <v>4</v>
@@ -50063,7 +49996,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50075,7 +50008,7 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>613</v>
@@ -50087,7 +50020,7 @@
         <v>105</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50105,16 +50038,16 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>620</v>
@@ -50155,13 +50088,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50200,7 +50133,7 @@
         <v>42247</v>
       </c>
       <c r="AD214" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="AF214" s="1" t="s">
         <v>106</v>
@@ -50254,7 +50187,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50266,10 +50199,10 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>118</v>
@@ -50281,13 +50214,13 @@
         <v>218</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BS214" s="3">
         <v>36580</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50308,7 +50241,7 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="CD214" s="1" t="s">
         <v>292</v>
@@ -50317,10 +50250,10 @@
         <v>1692</v>
       </c>
       <c r="CG214" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CH214" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CH214" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>130</v>
@@ -50358,13 +50291,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -50445,7 +50378,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -50457,7 +50390,7 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>1991</v>
@@ -50472,13 +50405,13 @@
         <v>119</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BS215" s="3">
         <v>37747</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -50502,10 +50435,10 @@
         <v>691</v>
       </c>
       <c r="CE215" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CG215" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>1998</v>
@@ -50546,13 +50479,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -50636,7 +50569,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -50648,7 +50581,7 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>118</v>
@@ -50657,7 +50590,7 @@
         <v>105</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -50675,16 +50608,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2675</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>130</v>
@@ -50725,13 +50658,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50815,7 +50748,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -50827,7 +50760,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>613</v>
@@ -50839,7 +50772,7 @@
         <v>105</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -50857,16 +50790,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>620</v>
@@ -50907,13 +50840,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -50994,7 +50927,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51006,10 +50939,10 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51021,13 +50954,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BS218" s="3">
         <v>37334</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51048,16 +50981,16 @@
         <v>532</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CG218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>130</v>
@@ -51095,13 +51028,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51182,7 +51115,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51194,10 +51127,10 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2703</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51209,13 +51142,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BS219" s="3">
         <v>37904</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51236,16 +51169,16 @@
         <v>1005</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CG219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2708</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>130</v>
@@ -51283,13 +51216,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51370,7 +51303,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51382,7 +51315,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>877</v>
@@ -51397,13 +51330,13 @@
         <v>119</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BS220" s="3">
         <v>36111</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51421,16 +51354,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CE220" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>882</v>
@@ -51471,13 +51404,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2721</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2722</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51558,7 +51491,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -51570,10 +51503,10 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -51585,13 +51518,13 @@
         <v>119</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BS221" s="3">
         <v>37785</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -51609,19 +51542,19 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="CG221" s="1" t="s">
+      <c r="CH221" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="CH221" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -51659,13 +51592,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51749,7 +51682,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -51761,7 +51694,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>1991</v>
@@ -51773,7 +51706,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -51794,13 +51727,13 @@
         <v>1319</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>1998</v>
@@ -51841,13 +51774,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2744</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -51925,7 +51858,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BB223" s="1">
         <v>4</v>
@@ -51934,7 +51867,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -51946,7 +51879,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -51955,7 +51888,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -51973,16 +51906,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52023,13 +51956,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52107,7 +52040,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BB224" s="1">
         <v>4</v>
@@ -52116,7 +52049,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52128,7 +52061,7 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>389</v>
@@ -52140,7 +52073,7 @@
         <v>105</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52158,16 +52091,16 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="CE224" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CG224" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>397</v>
@@ -52208,13 +52141,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52292,7 +52225,7 @@
         <v>101</v>
       </c>
       <c r="AZ225" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BB225" s="1">
         <v>4</v>
@@ -52301,7 +52234,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52313,7 +52246,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>118</v>
@@ -52322,7 +52255,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52343,13 +52276,13 @@
         <v>1175</v>
       </c>
       <c r="CD225" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CG225" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>130</v>
@@ -52390,13 +52323,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2773</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -52474,7 +52407,7 @@
         <v>101</v>
       </c>
       <c r="AZ226" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BB226" s="1">
         <v>4</v>
@@ -52483,7 +52416,7 @@
         <v>19</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -52495,7 +52428,7 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BI226" s="1" t="s">
         <v>877</v>
@@ -52510,13 +52443,13 @@
         <v>159</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BS226" s="3">
         <v>37513</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -52534,16 +52467,16 @@
         <v>101</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE226" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2781</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2782</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>882</v>
@@ -52584,13 +52517,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -52671,7 +52604,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -52683,10 +52616,10 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -52698,13 +52631,13 @@
         <v>102</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BS227" s="3">
         <v>41024</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -52722,19 +52655,19 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="CD227" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="CD227" s="1" t="s">
+      <c r="CE227" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="CE227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="CG227" s="1" t="s">
+      <c r="CH227" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="CH227" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -52772,13 +52705,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -52811,7 +52744,7 @@
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>2014</v>
@@ -52835,28 +52768,28 @@
         <v>110</v>
       </c>
       <c r="AQ228" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AR228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY228" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ228" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="AR228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV228" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY228" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ228" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="BB228" s="1">
         <v>4</v>
@@ -52865,7 +52798,7 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -52877,7 +52810,7 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BI228" s="1" t="s">
         <v>1991</v>
@@ -52892,13 +52825,13 @@
         <v>119</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BS228" s="3">
         <v>34808</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -52916,16 +52849,16 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="CD228" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="CD228" s="1" t="s">
+      <c r="CE228" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="CE228" s="1" t="s">
+      <c r="CG228" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2808</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>1998</v>
@@ -52966,13 +52899,13 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -53047,7 +52980,7 @@
         <v>101</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BB229" s="1">
         <v>4</v>
@@ -53056,7 +52989,7 @@
         <v>19</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BE229" s="1" t="s">
         <v>113</v>
@@ -53068,10 +53001,10 @@
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53083,13 +53016,13 @@
         <v>102</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BS229" s="3">
         <v>37336</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53107,19 +53040,19 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="CE229" s="1" t="s">
+      <c r="CG229" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CG229" s="1" t="s">
+      <c r="CH229" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53157,13 +53090,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2825</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53241,7 +53174,7 @@
         <v>101</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BB230" s="1">
         <v>4</v>
@@ -53250,7 +53183,7 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>113</v>
@@ -53262,7 +53195,7 @@
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>600</v>
@@ -53274,7 +53207,7 @@
         <v>105</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53292,16 +53225,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="CE230" s="1" t="s">
+      <c r="CG230" s="1" t="s">
         <v>2832</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2833</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>606</v>
@@ -53342,13 +53275,13 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>100</v>
@@ -53432,7 +53365,7 @@
         <v>19</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="BE231" s="1" t="s">
         <v>113</v>
@@ -53444,7 +53377,7 @@
         <v>115</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -53453,7 +53386,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -53471,16 +53404,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="CE231" s="1" t="s">
+      <c r="CG231" s="1" t="s">
         <v>2842</v>
-      </c>
-      <c r="CG231" s="1" t="s">
-        <v>2843</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53503,7 +53436,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -53515,16 +53448,16 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>110</v>
@@ -53593,7 +53526,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -53605,7 +53538,7 @@
         <v>378</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="233" spans="1:87" x14ac:dyDescent="0.25">
@@ -53640,13 +53573,13 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>100</v>
@@ -53681,12 +53614,7 @@
       <c r="AA233" s="1">
         <v>0</v>
       </c>
-      <c r="AC233" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD233" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC233" s="3"/>
       <c r="AF233" s="1" t="s">
         <v>106</v>
       </c>
@@ -53736,7 +53664,7 @@
         <v>101</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="BB233" s="1">
         <v>4</v>
@@ -53745,7 +53673,7 @@
         <v>19</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="BE233" s="1" t="s">
         <v>113</v>
@@ -53757,10 +53685,10 @@
         <v>115</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="BI233" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -53769,7 +53697,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -53793,16 +53721,16 @@
         <v>1224</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="CE233" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="CG233" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="CE233" s="1" t="s">
+      <c r="CH233" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="CG233" s="1" t="s">
-        <v>2860</v>
-      </c>
-      <c r="CH233" s="1" t="s">
-        <v>2861</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>130</v>
@@ -53840,10 +53768,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>110</v>
@@ -53867,7 +53795,7 @@
         <v>106</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>61</v>
@@ -53912,7 +53840,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -53924,7 +53852,7 @@
         <v>378</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -53959,10 +53887,10 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>110</v>
@@ -54049,7 +53977,7 @@
         <v>378</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54066,7 +53994,7 @@
         <v>90</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>92</v>
@@ -54078,16 +54006,16 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>110</v>
@@ -54156,7 +54084,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>124</v>
@@ -54168,7 +54096,7 @@
         <v>378</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54203,10 +54131,10 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>110</v>
@@ -54230,7 +54158,7 @@
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>385</v>
@@ -54287,7 +54215,7 @@
         <v>378</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -54322,10 +54250,10 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>110</v>
@@ -54349,7 +54277,7 @@
         <v>106</v>
       </c>
       <c r="AG238" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH238" s="1" t="s">
         <v>385</v>
@@ -54406,7 +54334,7 @@
         <v>378</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -54441,10 +54369,10 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>110</v>
@@ -54468,7 +54396,7 @@
         <v>106</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>385</v>
@@ -54525,7 +54453,7 @@
         <v>378</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -54560,10 +54488,10 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>110</v>
@@ -54587,7 +54515,7 @@
         <v>106</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>385</v>
@@ -54644,7 +54572,7 @@
         <v>378</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="241" spans="1:87" x14ac:dyDescent="0.25">
@@ -54679,10 +54607,10 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>110</v>
@@ -54763,7 +54691,7 @@
         <v>378</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="242" spans="1:87" x14ac:dyDescent="0.25">
@@ -54798,10 +54726,10 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>110</v>
@@ -54882,7 +54810,7 @@
         <v>378</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="243" spans="1:87" x14ac:dyDescent="0.25">
@@ -54917,10 +54845,10 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>110</v>
@@ -55001,7 +54929,7 @@
         <v>378</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="244" spans="1:87" x14ac:dyDescent="0.25">
@@ -55036,10 +54964,10 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>110</v>
@@ -55120,7 +55048,7 @@
         <v>378</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="245" spans="1:87" x14ac:dyDescent="0.25">
@@ -55155,13 +55083,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>2887</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2889</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55190,12 +55118,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>106</v>
       </c>
@@ -55248,7 +55171,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -55260,7 +55183,7 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="BI245" s="1" t="s">
         <v>877</v>
@@ -55275,13 +55198,13 @@
         <v>102</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BS245" s="3">
         <v>36306</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55299,16 +55222,16 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2894</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CG245" s="1" t="s">
         <v>2895</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2896</v>
-      </c>
-      <c r="CG245" s="1" t="s">
-        <v>2897</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>882</v>
@@ -55349,13 +55272,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>2898</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2900</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55384,12 +55307,7 @@
       <c r="AA246" s="1">
         <v>0</v>
       </c>
-      <c r="AC246" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>106</v>
       </c>
@@ -55445,7 +55363,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -55457,7 +55375,7 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -55466,7 +55384,7 @@
         <v>105</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -55484,16 +55402,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -55534,13 +55452,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -55572,12 +55490,7 @@
       <c r="AB247" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>106</v>
       </c>
@@ -55630,7 +55543,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -55642,7 +55555,7 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>389</v>
@@ -55657,13 +55570,13 @@
         <v>102</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BS247" s="3">
         <v>38234</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -55681,16 +55594,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="CD247" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="CG247" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>397</v>
@@ -55731,13 +55644,13 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2919</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -55766,12 +55679,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>106</v>
       </c>
@@ -55827,7 +55735,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -55839,7 +55747,7 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>613</v>
@@ -55851,7 +55759,7 @@
         <v>105</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -55869,16 +55777,16 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CG248" s="1" t="s">
         <v>2924</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>2926</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>620</v>
@@ -55919,13 +55827,13 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -55954,12 +55862,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>106</v>
       </c>
@@ -56015,7 +55918,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -56027,7 +55930,7 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>978</v>
@@ -56039,7 +55942,7 @@
         <v>105</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56057,16 +55960,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="CE249" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CG249" s="1" t="s">
         <v>2934</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="CG249" s="1" t="s">
-        <v>2936</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>984</v>
@@ -56107,13 +56010,13 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2937</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2939</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56142,12 +56045,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>106</v>
       </c>
@@ -56200,7 +56098,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -56212,7 +56110,7 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>613</v>
@@ -56227,13 +56125,13 @@
         <v>218</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BS250" s="3">
         <v>37069</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56254,13 +56152,13 @@
         <v>779</v>
       </c>
       <c r="CD250" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>2944</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>2946</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>620</v>
@@ -56301,13 +56199,13 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>2947</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2949</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56336,12 +56234,7 @@
       <c r="AA251" s="1">
         <v>0</v>
       </c>
-      <c r="AC251" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD251" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC251" s="3"/>
       <c r="AF251" s="1" t="s">
         <v>106</v>
       </c>
@@ -56397,7 +56290,7 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -56409,10 +56302,10 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
@@ -56421,7 +56314,7 @@
         <v>105</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56439,19 +56332,19 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="CE251" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CG251" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="CE251" s="1" t="s">
+      <c r="CH251" s="1" t="s">
         <v>2956</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="CH251" s="1" t="s">
-        <v>2958</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>130</v>
@@ -56489,13 +56382,13 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>2959</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56531,7 +56424,7 @@
         <v>43403</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="AE252" s="3">
         <v>43585</v>
@@ -56585,7 +56478,7 @@
         <v>101</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="BB252" s="1">
         <v>4</v>
@@ -56594,7 +56487,7 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -56606,10 +56499,10 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="BI252" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -56618,7 +56511,7 @@
         <v>105</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -56636,19 +56529,19 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="CD252" s="1" t="s">
         <v>2102</v>
       </c>
       <c r="CE252" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="CG252" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CH252" s="1" t="s">
         <v>2969</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="CH252" s="1" t="s">
-        <v>2971</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -56686,13 +56579,13 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>2972</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2974</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56721,12 +56614,7 @@
       <c r="AA253" s="1">
         <v>0</v>
       </c>
-      <c r="AC253" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD253" s="1" t="s">
-        <v>2975</v>
-      </c>
+      <c r="AC253" s="3"/>
       <c r="AF253" s="1" t="s">
         <v>106</v>
       </c>
@@ -56773,7 +56661,7 @@
         <v>101</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BB253" s="1">
         <v>4</v>
@@ -56782,7 +56670,7 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -56794,10 +56682,10 @@
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BI253" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
@@ -56809,13 +56697,13 @@
         <v>218</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BS253" s="3">
         <v>35125</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -56833,19 +56721,19 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>130</v>
@@ -56883,13 +56771,13 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -56973,7 +56861,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
@@ -56982,7 +56870,7 @@
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57000,13 +56888,13 @@
         <v>92</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CG254" s="1" t="s">
         <v>130</v>
@@ -57050,13 +56938,13 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57140,7 +57028,7 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
@@ -57149,7 +57037,7 @@
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57170,10 +57058,10 @@
         <v>576</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CG255" s="1" t="s">
         <v>130</v>
@@ -57217,13 +57105,13 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57256,7 +57144,7 @@
         <v>106</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>2243</v>
@@ -57307,7 +57195,7 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
@@ -57319,7 +57207,7 @@
         <v>159</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57337,13 +57225,13 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CG256" s="1" t="s">
         <v>130</v>
@@ -57387,13 +57275,13 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -57402,7 +57290,7 @@
         <v>101</v>
       </c>
       <c r="Q257" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>102</v>
@@ -57477,7 +57365,7 @@
         <v>19</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
@@ -57486,7 +57374,7 @@
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -57495,7 +57383,7 @@
         <v>0</v>
       </c>
       <c r="BZ257" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CA257" s="1" t="s">
         <v>124</v>
@@ -57504,13 +57392,13 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="CG257" s="1" t="s">
         <v>130</v>
@@ -57548,7 +57436,7 @@
         <v>94</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>96</v>
@@ -57557,10 +57445,10 @@
         <v>248</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N258" s="1" t="s">
         <v>250</v>
@@ -57590,7 +57478,7 @@
         <v>42582</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>106</v>
@@ -57647,13 +57535,13 @@
         <v>0</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BI258" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -57695,10 +57583,10 @@
         <v>260</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>130</v>
@@ -57718,7 +57606,7 @@
         <v>226</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>92</v>
@@ -57736,16 +57624,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="Q259" s="3">
         <v>17060</v>
@@ -57778,13 +57666,13 @@
         <v>42628</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>138</v>
@@ -57829,22 +57717,22 @@
         <v>101</v>
       </c>
       <c r="AZ259" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="BB259" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC259" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD259" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="BH259" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="BI259" s="1" t="s">
         <v>3032</v>
-      </c>
-      <c r="BB259" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC259" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD259" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="BH259" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="BI259" s="1" t="s">
-        <v>3035</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -57853,7 +57741,7 @@
         <v>105</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -57862,7 +57750,7 @@
         <v>0</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>124</v>
@@ -57877,13 +57765,13 @@
         <v>126</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>130</v>
@@ -57903,7 +57791,7 @@
         <v>226</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>101</v>
@@ -57921,16 +57809,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="Q260" s="3">
         <v>26864</v>
@@ -57960,7 +57848,7 @@
         <v>42735</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58014,10 +57902,10 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58029,13 +57917,13 @@
         <v>218</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BS260" s="3">
         <v>102</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58056,16 +57944,16 @@
         <v>101</v>
       </c>
       <c r="CC260" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="CD260" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CG260" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="CD260" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="CE260" s="1" t="s">
-        <v>3051</v>
-      </c>
-      <c r="CG260" s="1" t="s">
-        <v>3052</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58106,16 +57994,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="Q261" s="3">
         <v>25379</v>
@@ -58145,7 +58033,7 @@
         <v>39800</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>232</v>
@@ -58199,10 +58087,10 @@
         <v>0</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -58214,13 +58102,13 @@
         <v>376</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BS261" s="3">
         <v>35915</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58250,7 +58138,7 @@
         <v>449</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CG261" s="1" t="s">
         <v>2313</v>
@@ -58276,7 +58164,7 @@
         <v>90</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>101</v>
@@ -58288,22 +58176,22 @@
         <v>94</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="Q262" s="3">
         <v>17470</v>
@@ -58333,7 +58221,7 @@
         <v>43100</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>106</v>
@@ -58390,10 +58278,10 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -58402,7 +58290,7 @@
         <v>105</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58426,13 +58314,13 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CG262" s="1" t="s">
         <v>2313</v>
@@ -58476,16 +58364,16 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="Q263" s="3">
         <v>23356</v>
@@ -58512,7 +58400,7 @@
         <v>43105</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>106</v>
@@ -58566,10 +58454,10 @@
         <v>0</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -58581,13 +58469,13 @@
         <v>102</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BS263" s="3">
         <v>34412</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -58605,16 +58493,16 @@
         <v>101</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CD263" s="1" t="s">
         <v>2407</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -58655,16 +58543,16 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="Q264" s="3">
         <v>17726</v>
@@ -58697,7 +58585,7 @@
         <v>43312</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>232</v>
@@ -58748,7 +58636,7 @@
         <v>101</v>
       </c>
       <c r="AZ264" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BB264" s="1">
         <v>0</v>
@@ -58757,10 +58645,10 @@
         <v>0</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
@@ -58769,7 +58657,7 @@
         <v>105</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -58787,16 +58675,16 @@
         <v>101</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>941</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -58837,16 +58725,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="Q265" s="3">
         <v>22645</v>
@@ -58873,13 +58761,13 @@
         <v>43298</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>61</v>
@@ -58927,13 +58815,13 @@
         <v>0</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BI265" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -58942,13 +58830,13 @@
         <v>102</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BS265" s="3">
         <v>35209</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -58957,7 +58845,7 @@
         <v>0</v>
       </c>
       <c r="BZ265" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="CA265" s="1" t="s">
         <v>124</v>
@@ -58969,16 +58857,16 @@
         <v>1742</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>130</v>
@@ -58998,7 +58886,7 @@
         <v>90</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>92</v>
@@ -59010,22 +58898,22 @@
         <v>94</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="Q266" s="3">
         <v>17041</v>
@@ -59052,7 +58940,7 @@
         <v>42735</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>106</v>
@@ -59109,10 +58997,10 @@
         <v>0</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
@@ -59121,7 +59009,7 @@
         <v>105</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59133,7 +59021,7 @@
         <v>110</v>
       </c>
       <c r="BZ266" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="CA266" s="1" t="s">
         <v>124</v>
@@ -59142,13 +59030,13 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>2314</v>
@@ -59192,16 +59080,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="Q267" s="3">
         <v>30147</v>
@@ -59224,17 +59112,12 @@
       <c r="AA267" s="1">
         <v>0</v>
       </c>
-      <c r="AC267" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD267" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC267" s="3"/>
       <c r="AF267" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG267" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH267" s="1" t="s">
         <v>385</v>
@@ -59282,10 +59165,10 @@
         <v>0</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -59297,13 +59180,13 @@
         <v>102</v>
       </c>
       <c r="BR267" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BS267" s="3">
         <v>37124</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59321,16 +59204,16 @@
         <v>101</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -59371,16 +59254,16 @@
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="Q268" s="3">
         <v>17821</v>
@@ -59416,7 +59299,7 @@
         <v>43388</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>106</v>
@@ -59467,7 +59350,7 @@
         <v>101</v>
       </c>
       <c r="AZ268" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BB268" s="1">
         <v>0</v>
@@ -59476,10 +59359,10 @@
         <v>0</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
@@ -59488,7 +59371,7 @@
         <v>105</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -59506,16 +59389,16 @@
         <v>101</v>
       </c>
       <c r="CC268" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CE268" s="1" t="s">
         <v>519</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -59529,10 +59412,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1292</v>
@@ -59547,7 +59430,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1292</v>
@@ -59556,13 +59439,13 @@
         <v>808</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -59613,7 +59496,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -59649,7 +59532,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BE269" s="1" t="s">
         <v>113</v>
@@ -59661,13 +59544,13 @@
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -59694,10 +59577,10 @@
         <v>1124</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -59711,10 +59594,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1292</v>
@@ -59729,7 +59612,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1292</v>
@@ -59738,10 +59621,10 @@
         <v>808</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>376</v>
@@ -59780,7 +59663,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -59828,7 +59711,7 @@
         <v>378</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="271" spans="1:87" x14ac:dyDescent="0.25">
@@ -59836,10 +59719,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1292</v>
@@ -59854,7 +59737,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1292</v>
@@ -59863,13 +59746,13 @@
         <v>808</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -59920,7 +59803,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -59956,7 +59839,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -59968,13 +59851,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -59995,16 +59878,16 @@
         <v>92</v>
       </c>
       <c r="CC271" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="CD271" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="CG271" s="1" t="s">
         <v>3154</v>
-      </c>
-      <c r="CD271" s="1" t="s">
-        <v>3155</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3156</v>
-      </c>
-      <c r="CG271" s="1" t="s">
-        <v>3157</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60018,10 +59901,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1292</v>
@@ -60036,7 +59919,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1292</v>
@@ -60045,13 +59928,13 @@
         <v>808</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60138,7 +60021,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>113</v>
@@ -60150,13 +60033,13 @@
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60177,7 +60060,7 @@
         <v>101</v>
       </c>
       <c r="CC272" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CD272" s="1" t="s">
         <v>617</v>
@@ -60186,7 +60069,7 @@
         <v>519</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60200,10 +60083,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1292</v>
@@ -60218,7 +60101,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1292</v>
@@ -60227,13 +60110,13 @@
         <v>808</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -60287,7 +60170,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60323,7 +60206,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60335,13 +60218,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60365,13 +60248,13 @@
         <v>503</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -60385,10 +60268,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1292</v>
@@ -60403,7 +60286,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1292</v>
@@ -60412,13 +60295,13 @@
         <v>808</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -60505,7 +60388,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -60517,13 +60400,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -60544,16 +60427,16 @@
         <v>101</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CD274" s="1" t="s">
         <v>628</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -60567,10 +60450,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1292</v>
@@ -60585,7 +60468,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1292</v>
@@ -60594,13 +60477,13 @@
         <v>808</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -60636,7 +60519,7 @@
         <v>106</v>
       </c>
       <c r="AG275" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="AH275" s="1" t="s">
         <v>553</v>
@@ -60654,7 +60537,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -60690,7 +60573,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -60702,13 +60585,13 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -60729,16 +60612,16 @@
         <v>101</v>
       </c>
       <c r="CC275" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CD275" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -60752,10 +60635,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1292</v>
@@ -60770,7 +60653,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1292</v>
@@ -60779,13 +60662,13 @@
         <v>808</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
@@ -60839,7 +60722,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -60875,7 +60758,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -60887,13 +60770,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -60917,13 +60800,13 @@
         <v>1033</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -60937,10 +60820,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1292</v>
@@ -60955,7 +60838,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1292</v>
@@ -60964,13 +60847,13 @@
         <v>808</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61024,7 +60907,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61060,7 +60943,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>113</v>
@@ -61072,13 +60955,13 @@
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61105,10 +60988,10 @@
         <v>2214</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61122,10 +61005,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1292</v>
@@ -61140,7 +61023,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1292</v>
@@ -61149,13 +61032,13 @@
         <v>808</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>2353</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
@@ -61191,7 +61074,7 @@
         <v>106</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="AH278" s="1" t="s">
         <v>553</v>
@@ -61206,7 +61089,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61239,19 +61122,19 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61269,16 +61152,16 @@
         <v>101</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="CD278" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="CG278" s="1" t="s">
         <v>3219</v>
-      </c>
-      <c r="CD278" s="1" t="s">
-        <v>3220</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>3221</v>
-      </c>
-      <c r="CG278" s="1" t="s">
-        <v>3222</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61292,10 +61175,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1292</v>
@@ -61310,7 +61193,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1292</v>
@@ -61319,13 +61202,13 @@
         <v>808</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>2361</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>110</v>
@@ -61409,19 +61292,19 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -61442,16 +61325,16 @@
         <v>2281</v>
       </c>
       <c r="CC279" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="CD279" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="CG279" s="1" t="s">
         <v>3228</v>
-      </c>
-      <c r="CD279" s="1" t="s">
-        <v>3229</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="CG279" s="1" t="s">
-        <v>3231</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -61465,10 +61348,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1292</v>
@@ -61483,7 +61366,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1292</v>
@@ -61492,13 +61375,13 @@
         <v>808</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -61582,19 +61465,19 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -61615,13 +61498,13 @@
         <v>1238</v>
       </c>
       <c r="CD280" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CE280" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="CG280" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -61635,10 +61518,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1292</v>
@@ -61653,7 +61536,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1292</v>
@@ -61662,13 +61545,13 @@
         <v>808</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -61719,7 +61602,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -61755,7 +61638,7 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BE281" s="1" t="s">
         <v>113</v>
@@ -61767,13 +61650,13 @@
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -61794,16 +61677,16 @@
         <v>92</v>
       </c>
       <c r="CC281" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CD281" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CG281" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -61817,10 +61700,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1292</v>
@@ -61835,7 +61718,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1292</v>
@@ -61844,13 +61727,13 @@
         <v>808</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
@@ -61904,7 +61787,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -61940,7 +61823,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>113</v>
@@ -61952,13 +61835,13 @@
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
@@ -61979,16 +61862,16 @@
         <v>101</v>
       </c>
       <c r="CC282" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="CD282" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="CG282" s="1" t="s">
         <v>3256</v>
-      </c>
-      <c r="CD282" s="1" t="s">
-        <v>3257</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3258</v>
-      </c>
-      <c r="CG282" s="1" t="s">
-        <v>3259</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62002,10 +61885,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1292</v>
@@ -62020,7 +61903,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1292</v>
@@ -62029,13 +61912,13 @@
         <v>808</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
@@ -62089,7 +61972,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62125,7 +62008,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>113</v>
@@ -62137,13 +62020,13 @@
         <v>115</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>122</v>
@@ -62164,16 +62047,16 @@
         <v>101</v>
       </c>
       <c r="CC283" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="CD283" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="CG283" s="1" t="s">
         <v>3266</v>
-      </c>
-      <c r="CD283" s="1" t="s">
-        <v>3267</v>
-      </c>
-      <c r="CE283" s="1" t="s">
-        <v>3268</v>
-      </c>
-      <c r="CG283" s="1" t="s">
-        <v>3269</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62187,10 +62070,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1292</v>
@@ -62205,7 +62088,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1292</v>
@@ -62214,13 +62097,13 @@
         <v>808</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
@@ -62307,7 +62190,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>113</v>
@@ -62319,13 +62202,13 @@
         <v>115</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>122</v>
@@ -62346,16 +62229,16 @@
         <v>101</v>
       </c>
       <c r="CC284" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="CE284" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG284" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -62369,10 +62252,10 @@
         <v>87</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1292</v>
@@ -62387,7 +62270,7 @@
         <v>93</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1292</v>
@@ -62396,13 +62279,13 @@
         <v>808</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>100</v>
@@ -62456,7 +62339,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -62492,7 +62375,7 @@
         <v>19</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BE285" s="1" t="s">
         <v>113</v>
@@ -62504,19 +62387,19 @@
         <v>115</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW285" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BX285" s="1">
         <v>0</v>
@@ -62534,16 +62417,16 @@
         <v>101</v>
       </c>
       <c r="CC285" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CD285" s="1" t="s">
         <v>1300</v>
       </c>
       <c r="CE285" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CG285" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -62557,10 +62440,10 @@
         <v>87</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1292</v>
@@ -62575,7 +62458,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1292</v>
@@ -62584,13 +62467,13 @@
         <v>808</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>100</v>
@@ -62641,7 +62524,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="AO286" s="1">
         <v>0</v>
@@ -62677,7 +62560,7 @@
         <v>19</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BE286" s="1" t="s">
         <v>113</v>
@@ -62689,13 +62572,13 @@
         <v>115</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>122</v>
@@ -62716,16 +62599,16 @@
         <v>101</v>
       </c>
       <c r="CC286" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CD286" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="CE286" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="CG286" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>130</v>
@@ -62739,10 +62622,10 @@
         <v>87</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1292</v>
@@ -62757,7 +62640,7 @@
         <v>93</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1292</v>
@@ -62766,13 +62649,13 @@
         <v>808</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>100</v>
@@ -62799,7 +62682,7 @@
         <v>0</v>
       </c>
       <c r="AG287" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="AH287" s="1" t="s">
         <v>385</v>
@@ -62814,7 +62697,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -62844,7 +62727,7 @@
         <v>19</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BE287" s="1" t="s">
         <v>113</v>
@@ -62856,13 +62739,13 @@
         <v>115</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>122</v>
@@ -62880,16 +62763,16 @@
         <v>101</v>
       </c>
       <c r="CC287" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CD287" s="1" t="s">
         <v>304</v>
       </c>
       <c r="CE287" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="CG287" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>130</v>
@@ -62903,10 +62786,10 @@
         <v>87</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1292</v>
@@ -62921,7 +62804,7 @@
         <v>93</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1292</v>
@@ -62930,13 +62813,13 @@
         <v>808</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>100</v>
@@ -63020,7 +62903,7 @@
         <v>19</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BE288" s="1" t="s">
         <v>113</v>
@@ -63032,13 +62915,13 @@
         <v>115</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>122</v>
@@ -63056,16 +62939,16 @@
         <v>101</v>
       </c>
       <c r="CC288" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="CD288" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="CE288" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="CG288" s="1" t="s">
         <v>3312</v>
-      </c>
-      <c r="CD288" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="CE288" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="CG288" s="1" t="s">
-        <v>3315</v>
       </c>
       <c r="CH288" s="1" t="s">
         <v>130</v>
@@ -63079,10 +62962,10 @@
         <v>87</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1292</v>
@@ -63097,7 +62980,7 @@
         <v>93</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1292</v>
@@ -63106,13 +62989,13 @@
         <v>808</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>100</v>
@@ -63199,7 +63082,7 @@
         <v>19</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BE289" s="1" t="s">
         <v>113</v>
@@ -63211,13 +63094,13 @@
         <v>115</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>122</v>
@@ -63235,16 +63118,16 @@
         <v>101</v>
       </c>
       <c r="CC289" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CD289" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CE289" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="CG289" s="1" t="s">
         <v>3322</v>
-      </c>
-      <c r="CD289" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="CE289" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="CG289" s="1" t="s">
-        <v>3325</v>
       </c>
       <c r="CH289" s="1" t="s">
         <v>130</v>
@@ -63258,10 +63141,10 @@
         <v>87</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>1292</v>
@@ -63276,7 +63159,7 @@
         <v>93</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>1292</v>
@@ -63285,13 +63168,13 @@
         <v>808</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="O290" s="1" t="s">
         <v>100</v>
@@ -63299,8 +63182,8 @@
       <c r="P290" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q290" t="s">
-        <v>3011</v>
+      <c r="Q290" s="3">
+        <v>29467</v>
       </c>
       <c r="R290" s="1" t="s">
         <v>136</v>
@@ -63342,7 +63225,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="AO290" s="1">
         <v>0</v>
@@ -63375,7 +63258,7 @@
         <v>19</v>
       </c>
       <c r="BD290" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BE290" s="1" t="s">
         <v>113</v>
@@ -63387,13 +63270,13 @@
         <v>115</v>
       </c>
       <c r="BH290" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="BM290" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT290" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="BU290" s="1" t="s">
         <v>122</v>
@@ -63411,16 +63294,16 @@
         <v>101</v>
       </c>
       <c r="CC290" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="CD290" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="CE290" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="CG290" s="1" t="s">
         <v>3333</v>
-      </c>
-      <c r="CD290" s="1" t="s">
-        <v>3334</v>
-      </c>
-      <c r="CE290" s="1" t="s">
-        <v>3335</v>
-      </c>
-      <c r="CG290" s="1" t="s">
-        <v>3336</v>
       </c>
       <c r="CH290" s="1" t="s">
         <v>130</v>
@@ -63461,16 +63344,16 @@
         <v>96</v>
       </c>
       <c r="K291" s="4" t="s">
+        <v>2771</v>
+      </c>
+      <c r="L291" s="4" t="s">
         <v>2772</v>
-      </c>
-      <c r="L291" s="4" t="s">
-        <v>2773</v>
       </c>
       <c r="M291" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N291" s="4" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="O291" s="4" t="s">
         <v>100</v>
@@ -63478,13 +63361,13 @@
       <c r="P291" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q291" s="5">
+      <c r="Q291" s="7">
         <v>29411</v>
       </c>
       <c r="R291" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S291" s="5">
+      <c r="S291" s="7">
         <v>43009</v>
       </c>
       <c r="T291" s="4" t="s">
@@ -63559,7 +63442,7 @@
         <v>101</v>
       </c>
       <c r="AZ291" s="4" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BA291" s="4" t="s">
         <v>273</v>
@@ -63571,7 +63454,7 @@
         <v>19</v>
       </c>
       <c r="BD291" s="4" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BE291" s="4"/>
       <c r="BF291" s="4"/>
@@ -63579,7 +63462,7 @@
         <v>115</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -63599,13 +63482,13 @@
       </c>
       <c r="BQ291" s="4"/>
       <c r="BR291" s="4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BS291" s="5">
         <v>37513</v>
       </c>
       <c r="BT291" s="4" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BU291" s="4" t="s">
         <v>122</v>
@@ -63626,17 +63509,17 @@
         <v>101</v>
       </c>
       <c r="CC291" s="4" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="CD291" s="4" t="s">
         <v>126</v>
       </c>
       <c r="CE291" s="4" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="CF291" s="4"/>
       <c r="CG291" s="4" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CH291" s="4" t="s">
         <v>130</v>
@@ -63677,16 +63560,16 @@
         <v>96</v>
       </c>
       <c r="K292" s="4" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L292" s="4" t="s">
         <v>2783</v>
-      </c>
-      <c r="L292" s="4" t="s">
-        <v>2784</v>
       </c>
       <c r="M292" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="O292" s="4" t="s">
         <v>100</v>
@@ -63694,13 +63577,13 @@
       <c r="P292" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q292" s="5">
+      <c r="Q292" s="7">
         <v>32173</v>
       </c>
       <c r="R292" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S292" s="5">
+      <c r="S292" s="7">
         <v>43009</v>
       </c>
       <c r="T292" s="4" t="s">
@@ -63785,7 +63668,7 @@
         <v>19</v>
       </c>
       <c r="BD292" s="4" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="BE292" s="4"/>
       <c r="BF292" s="4"/>
@@ -63793,7 +63676,7 @@
         <v>115</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -63811,13 +63694,13 @@
       <c r="BP292" s="4"/>
       <c r="BQ292" s="4"/>
       <c r="BR292" s="4" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BS292" s="5">
         <v>41024</v>
       </c>
       <c r="BT292" s="4" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BU292" s="4" t="s">
         <v>122</v>
@@ -63838,17 +63721,17 @@
         <v>101</v>
       </c>
       <c r="CC292" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="CD292" s="4" t="s">
         <v>2791</v>
       </c>
-      <c r="CD292" s="4" t="s">
+      <c r="CE292" s="4" t="s">
         <v>2792</v>
-      </c>
-      <c r="CE292" s="4" t="s">
-        <v>2793</v>
       </c>
       <c r="CF292" s="4"/>
       <c r="CG292" s="4" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="CH292" s="4" t="s">
         <v>130</v>
@@ -63889,16 +63772,16 @@
         <v>96</v>
       </c>
       <c r="K293" s="4" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="M293" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N293" s="4" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="O293" s="4" t="s">
         <v>100</v>
@@ -63906,13 +63789,13 @@
       <c r="P293" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q293" s="5">
+      <c r="Q293" s="7">
         <v>29181</v>
       </c>
       <c r="R293" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S293" s="5">
+      <c r="S293" s="7">
         <v>43405</v>
       </c>
       <c r="T293" s="4" t="s">
@@ -63933,12 +63816,7 @@
       <c r="AB293" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="AC293" s="5">
-        <v>43405</v>
-      </c>
-      <c r="AD293" s="4" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AD293" s="4"/>
       <c r="AF293" s="4" t="s">
         <v>106</v>
       </c>
@@ -64002,7 +63880,7 @@
         <v>19</v>
       </c>
       <c r="BD293" s="4" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="BE293" s="4"/>
       <c r="BF293" s="4"/>
@@ -64010,7 +63888,7 @@
         <v>115</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -64028,13 +63906,13 @@
       <c r="BP293" s="4"/>
       <c r="BQ293" s="4"/>
       <c r="BR293" s="4" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BS293" s="5">
         <v>37069</v>
       </c>
       <c r="BT293" s="4" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BU293" s="4" t="s">
         <v>122</v>
@@ -64058,14 +63936,14 @@
         <v>779</v>
       </c>
       <c r="CD293" s="4" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="CE293" s="4" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="CF293" s="4"/>
       <c r="CG293" s="4" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="CH293" s="4" t="s">
         <v>130</v>
@@ -64075,6 +63953,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI293" xr:uid="{CF07AE40-AE5F-4B3D-B22A-558CC0B68DF0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>